--- a/data/trans_dic/P5_5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_5-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de balcón en su vivienda</t>
+          <t>Población que disfruta de balcón en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>57,61%</t>
+          <t>50,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>60,19%</t>
+          <t>49,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>48,28%</t>
+          <t>57,83%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,9%</t>
+          <t>58,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>52,49%</t>
+          <t>54,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>55,36%</t>
+          <t>54,75%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,7; 70,29</t>
+          <t>32,48; 68,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,97; 72,3</t>
+          <t>32,26; 68,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,7; 59,68</t>
+          <t>42,65; 72,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,11; 62,22</t>
+          <t>43,59; 73,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,72; 61,36</t>
+          <t>43,33; 64,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,32; 64,39</t>
+          <t>43,65; 65,41</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>49,86%</t>
+          <t>58,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>72,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>37,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>48,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,95%</t>
+          <t>53,76%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,55; 65,73</t>
+          <t>37,07; 77,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,79; 70,93</t>
+          <t>55,42; 87,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,67; 48,7</t>
+          <t>26,24; 51,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,98; 47,91</t>
+          <t>22,85; 47,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,95; 53,5</t>
+          <t>34,94; 60,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,36; 55,82</t>
+          <t>42,08; 68,57</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>30,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>42,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46,95%</t>
+          <t>44,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,87%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>38,99%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,97; 50,05</t>
+          <t>19,15; 44,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,26; 46,66</t>
+          <t>19,64; 44,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,6; 55,01</t>
+          <t>32,87; 52,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>38,41; 55,18</t>
+          <t>34,64; 54,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,79; 49,91</t>
+          <t>29,97; 45,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,04; 48,81</t>
+          <t>31,58; 46,78</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,0%</t>
+          <t>47,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,83%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,63%</t>
+          <t>40,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>40,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,95%</t>
+          <t>43,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,85%</t>
+          <t>43,0%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,6; 58,52</t>
+          <t>37,26; 58,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,36; 56,63</t>
+          <t>36,3; 57,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,2; 49,45</t>
+          <t>31,09; 49,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,94; 49,45</t>
+          <t>31,84; 50,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,96; 50,42</t>
+          <t>36,15; 50,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,75; 49,53</t>
+          <t>36,32; 50,69</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>47,21%</t>
+          <t>49,75%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,39%</t>
+          <t>52,6%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,18%</t>
+          <t>46,9%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>45,73%</t>
+          <t>48,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>46,68%</t>
+          <t>50,1%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,98; 57,06</t>
+          <t>36,75; 62,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,22; 60,35</t>
+          <t>39,94; 65,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,88; 54,06</t>
+          <t>32,75; 60,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,65; 53,64</t>
+          <t>32,78; 59,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,15; 52,72</t>
+          <t>38,87; 58,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,52; 54,16</t>
+          <t>40,25; 59,54</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>45,63%</t>
+          <t>51,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>49,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>40,79%</t>
+          <t>35,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>36,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>42,31%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35,58; 58,52</t>
+          <t>36,31; 67,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,43; 58,1</t>
+          <t>34,54; 66,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,66; 52,79</t>
+          <t>23,63; 54,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,1; 52,14</t>
+          <t>23,97; 54,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,45; 51,81</t>
+          <t>32,61; 54,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,57; 50,58</t>
+          <t>32,19; 53,12</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>47,39%</t>
+          <t>47,44%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>50,14%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>43,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>43,12%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>45,2%</t>
+          <t>45,06%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>46,37%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,49; 51,94</t>
+          <t>41,17; 53,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>42,42; 52,64</t>
+          <t>43,62; 57,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,26; 47,17</t>
+          <t>37,54; 47,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>39,53; 47,57</t>
+          <t>37,81; 48,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,32; 48,17</t>
+          <t>41,16; 49,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,99; 48,74</t>
+          <t>42,29; 50,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de balcón en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>43189</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>53232</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>67992</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>78737</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>111180</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>131969</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27973; 58727</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34524; 73216</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>50147; 85515</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>58415; 98133</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>88255; 131939</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>105199; 157659</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>80260</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>121766</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>50571</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>57697</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>130831</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>179462</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>50720; 106271</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>93514; 147960</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>34981; 68423</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>37724; 78132</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>94387; 164675</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>140490; 228919</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>42073</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>49226</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>90938</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>116922</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>133010</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>166147</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26753; 61527</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>31831; 72366</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>70792; 112476</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>91468; 143094</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>106414; 161168</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>134551; 199354</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>77007</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>85413</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>76708</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>88782</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>153714</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>174194</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>60920; 95640</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>67767; 107198</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>59467; 94417</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>69539; 109328</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>128228; 180275</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>147128; 205317</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>69103</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>82805</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>48530</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>54293</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>117632</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>137099</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>51047; 86687</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>62867; 102466</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>33894; 62182</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>38093; 69434</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>94207; 140673</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>110138; 162904</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>46670</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>54416</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>38486</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>50052</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>85155</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>104468</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>32764; 61161</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>37758; 72206</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>25293; 58062</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>32980; 74929</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>64328; 107089</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>79491; 131164</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>358301</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>446857</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>373223</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>446482</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>731524</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>893340</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>310938; 407810</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>388732; 510414</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>325845; 415507</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>391417; 497674</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>668186; 802617</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>814728; 976245</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>